--- a/demand.xlsx
+++ b/demand.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\62- Other Projects\24- Articles\13- Supply Chain Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\samirsaci\repos_supplyscience\supply-chain-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187B785D-E942-491B-80F3-B89881979E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -50,10 +51,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -124,7 +125,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -137,10 +138,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,64 +419,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="B2" s="4">
         <v>2800000</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B3" s="4">
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B4" s="4">
         <v>1700000</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B5" s="4">
         <v>145000</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B6" s="4">
         <v>160000</v>
       </c>
     </row>
